--- a/DbLayouts/L5-管理性作業/HlCusData.xlsx
+++ b/DbLayouts/L5-管理性作業/HlCusData.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8436"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
